--- a/content/drafts/entitats/Codis_Territori_Comunitats_Autònomes.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Comunitats_Autònomes.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\layatsal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C053AB2-ECFA-4B8A-B713-DFD797F56D06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F8C01-E957-4359-8BB6-65A589892A5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-1668" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCAA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Comunitat Valenciana</t>
   </si>
@@ -106,9 +114,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>NomTaula:</t>
-  </si>
-  <si>
     <t>Codis_Territori_Comunitats_Autònomes</t>
   </si>
   <si>
@@ -167,6 +172,18 @@
   </si>
   <si>
     <t>Nom oficial</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>Otros/Varios</t>
+  </si>
+  <si>
+    <t>Nom Taula:</t>
   </si>
 </sst>
 </file>
@@ -747,7 +764,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C23" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C24" totalsRowShown="0" headerRowDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B54">
     <sortCondition ref="A4:A54"/>
   </sortState>
@@ -1027,33 +1044,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1061,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1072,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1083,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1105,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1116,10 +1133,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1127,10 +1144,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1138,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1149,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1163,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1174,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1182,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -1193,10 +1210,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -1204,10 +1221,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1215,10 +1232,10 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1226,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1237,10 +1254,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1251,7 +1268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1262,108 +1279,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54"/>
     </row>
   </sheetData>
@@ -1372,6 +1397,9 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A23:C23 A24 A4:A12" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1379,6 +1407,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1510,15 +1547,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1529,6 +1557,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A429C9-5E63-4FA8-B85A-05018DBA79D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EF112E-0C45-475B-A010-A3D9241E05F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1546,22 +1590,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A429C9-5E63-4FA8-B85A-05018DBA79D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020D7AE1-34CC-4699-A1E6-0DF4BD52F1C5}">
   <ds:schemaRefs>

--- a/content/drafts/entitats/Codis_Territori_Comunitats_Autònomes.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Comunitats_Autònomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F8C01-E957-4359-8BB6-65A589892A5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E369036-AD43-47C0-B242-A13066DEE5F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="2070" windowWidth="10020" windowHeight="7300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCAA" sheetId="1" r:id="rId1"/>
@@ -1407,12 +1407,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,26 +1548,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A429C9-5E63-4FA8-B85A-05018DBA79D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020D7AE1-34CC-4699-A1E6-0DF4BD52F1C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1591,9 +1583,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020D7AE1-34CC-4699-A1E6-0DF4BD52F1C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A429C9-5E63-4FA8-B85A-05018DBA79D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>